--- a/biology/Médecine/Muscle_sterno-cléido-mastoïdien/Muscle_sterno-cléido-mastoïdien.xlsx
+++ b/biology/Médecine/Muscle_sterno-cléido-mastoïdien/Muscle_sterno-cléido-mastoïdien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_sterno-cl%C3%A9ido-masto%C3%AFdien</t>
+          <t>Muscle_sterno-cléido-mastoïdien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle sterno-cléido-mastoïdien (sterno-mastoïdien, ou muscle satellite de la carotide ou muscle quadriceps de la tête ou muscle quadrijumeau de la tête ou encore muscle sterno-cléido-mastoïdien-occipital dans d'anciennes nomenclatures[1]) (musculus sternocleidomastoideus en latin), est un muscle pair du cou, tendu verticalement, entre la clavicule et le sternum en bas et la mastoïde de l'os temporal et l'os occipital en haut. Le muscle sterno-cléido-mastoïdien est un muscle prévertébral. Il se divise en deux chefs, dont chacun comporte deux terminaisons. Le muscle sterno-cléido-mastoïdien contient donc un chef sternal, associé au sternum, et un chef claviculaire, associé à la clavicule. Le chef sternal va donc donner deux trajets de terminaisons : sterno-mastoïdien et sterno-occipital. Et le chef claviculaire va également donner deux trajets de terminaisons : cléido-occipital et cléido-mastoïdien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle sterno-cléido-mastoïdien (sterno-mastoïdien, ou muscle satellite de la carotide ou muscle quadriceps de la tête ou muscle quadrijumeau de la tête ou encore muscle sterno-cléido-mastoïdien-occipital dans d'anciennes nomenclatures) (musculus sternocleidomastoideus en latin), est un muscle pair du cou, tendu verticalement, entre la clavicule et le sternum en bas et la mastoïde de l'os temporal et l'os occipital en haut. Le muscle sterno-cléido-mastoïdien est un muscle prévertébral. Il se divise en deux chefs, dont chacun comporte deux terminaisons. Le muscle sterno-cléido-mastoïdien contient donc un chef sternal, associé au sternum, et un chef claviculaire, associé à la clavicule. Le chef sternal va donc donner deux trajets de terminaisons : sterno-mastoïdien et sterno-occipital. Et le chef claviculaire va également donner deux trajets de terminaisons : cléido-occipital et cléido-mastoïdien.
 Il doit son nom de « sterno-cléido-mastoïdien » au fait qu'il est attaché au sternum (sterno-), à la clavicule (cléido-), et au processus mastoïde de l'os temporal du crâne.
 Ce muscle est aussi appelé « sterno-cléido-occipito-mastoïdien ». Cette appellation vient du fait qu'il est non seulement attaché aux os mentionnés plus haut, mais aussi à l'os occipital.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_sterno-cl%C3%A9ido-masto%C3%AFdien</t>
+          <t>Muscle_sterno-cléido-mastoïdien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Insertion et trajet
-Insertions crâniales : il prend son origine sur
+          <t>Insertion et trajet</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Insertions crâniales : il prend son origine sur
 le bord antérieur et la face latérale du processus mastoïde,
 le tiers externe de la ligne nuchale supérieure en dehors du muscle trapèze.
 Trajet : il descend, oblique en bas et en avant et en dedans, en formant deux faisceaux :
@@ -527,12 +544,7 @@
 le faisceau superficiel s'insère ;
 pour son chef latéral, sur le tiers interne de la face supérieure de la clavicule, en avant du faisceau postérieur,
 pour son chef médial, sur la face ventrale du manubrium sternal dans sa partie supéro externe.
-L'espace formé entre le bord postérieur du faisceau superficiel, le bord antérieur du faisceau profond et le bord supérieur de la clavicule est nommé triangle de Sédillot.
-Vascularisation
-Son irrigation sanguine est assurée par l'artère occipitale dans sa portion supérieur, l'artère thyroïdienne supérieure dans sa portion moyenne et l'artère thyroïdienne inférieure dans sa portion inférieure.
-Innervation
-Son innervation motrice est due au 11e nerf crânien, le nerf spinal accessoire. Son innervation sensorielle est assurée par le plexus cervical en C2-C3.
-</t>
+L'espace formé entre le bord postérieur du faisceau superficiel, le bord antérieur du faisceau profond et le bord supérieur de la clavicule est nommé triangle de Sédillot.</t>
         </is>
       </c>
     </row>
@@ -542,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_sterno-cl%C3%A9ido-masto%C3%AFdien</t>
+          <t>Muscle_sterno-cléido-mastoïdien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,10 +569,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son irrigation sanguine est assurée par l'artère occipitale dans sa portion supérieur, l'artère thyroïdienne supérieure dans sa portion moyenne et l'artère thyroïdienne inférieure dans sa portion inférieure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Muscle_sterno-cléido-mastoïdien</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_sterno-cl%C3%A9ido-masto%C3%AFdien</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son innervation motrice est due au 11e nerf crânien, le nerf spinal accessoire. Son innervation sensorielle est assurée par le plexus cervical en C2-C3.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscle_sterno-cléido-mastoïdien</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_sterno-cl%C3%A9ido-masto%C3%AFdien</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors d'une contraction unilatérale, il permet une flexion, une inclinaison homolatérale et une rotation controlatérale de la tête.
 Si la contraction est bilatérale, l'ensemble des muscles sterno-cléido-mastoïdiens provoque une flexion de la tête, augmentent la lordose cervicale et fléchissent la colonne cervicale sur le thorax.
